--- a/breeding_patterns - win, sum/all F1 mice/Seasonal_Births_ PO _ 5 yr.xlsx
+++ b/breeding_patterns - win, sum/all F1 mice/Seasonal_Births_ PO _ 5 yr.xlsx
@@ -17,40 +17,40 @@
     <t xml:space="preserve">BirthSeason</t>
   </si>
   <si>
-    <t xml:space="preserve">1964-1968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1969-1973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1974-1978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1979-1983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1984-1988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1989-1993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1994-1998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1999-2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004-2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-2023</t>
+    <t xml:space="preserve">1963-1967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1968-1972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1973-1977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1978-1982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1983-1987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1988-1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1993-1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998-2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003-2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-2022</t>
   </si>
   <si>
     <t xml:space="preserve">Summer</t>
@@ -434,40 +434,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>890</v>
+        <v>816</v>
       </c>
       <c r="C2" t="n">
-        <v>907</v>
+        <v>824</v>
       </c>
       <c r="D2" t="n">
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="E2" t="n">
-        <v>648</v>
+        <v>629</v>
       </c>
       <c r="F2" t="n">
-        <v>824</v>
+        <v>808</v>
       </c>
       <c r="G2" t="n">
-        <v>847</v>
+        <v>915</v>
       </c>
       <c r="H2" t="n">
-        <v>545</v>
+        <v>564</v>
       </c>
       <c r="I2" t="n">
-        <v>708</v>
+        <v>626</v>
       </c>
       <c r="J2" t="n">
-        <v>878</v>
+        <v>768</v>
       </c>
       <c r="K2" t="n">
-        <v>798</v>
+        <v>950</v>
       </c>
       <c r="L2" t="n">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="M2" t="n">
-        <v>664</v>
+        <v>618</v>
       </c>
     </row>
     <row r="3">
@@ -475,40 +475,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="C3" t="n">
-        <v>750</v>
+        <v>667</v>
       </c>
       <c r="D3" t="n">
-        <v>366</v>
+        <v>416</v>
       </c>
       <c r="E3" t="n">
-        <v>810</v>
+        <v>783</v>
       </c>
       <c r="F3" t="n">
-        <v>836</v>
+        <v>751</v>
       </c>
       <c r="G3" t="n">
-        <v>680</v>
+        <v>749</v>
       </c>
       <c r="H3" t="n">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="I3" t="n">
-        <v>555</v>
+        <v>513</v>
       </c>
       <c r="J3" t="n">
-        <v>713</v>
+        <v>697</v>
       </c>
       <c r="K3" t="n">
-        <v>761</v>
+        <v>797</v>
       </c>
       <c r="L3" t="n">
-        <v>710</v>
+        <v>685</v>
       </c>
       <c r="M3" t="n">
-        <v>663</v>
+        <v>682</v>
       </c>
     </row>
   </sheetData>
